--- a/biology/Botanique/Rhopalostylidinae/Rhopalostylidinae.xlsx
+++ b/biology/Botanique/Rhopalostylidinae/Rhopalostylidinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Rhopalostylidinae est une sous-tribu botanique composée de deux genres de palmiers d' Australie et de Nouvelle-Zélande, Hedyscepe et Rhopalostylis . Ces deux genres étaient auparavant inclus dans Archontophenicinae, auxquels ils sont morphologiquement similaires (Dowe 2010 :233), jusqu'à une révision récente (Dransfield, Uhl et al., 2005).
@@ -512,11 +524,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
-Sous-tribu des  Rhopalostylidinae  [1],[2]
+Sous-tribu des  Rhopalostylidinae  ,
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les palmiers de cette sous-tribu sont des palmiers de taille moyenne, avec une couronne bien développées et des feuilles strictement pennées avec des pétioles généralement courts et massifs. Les inflorescences sont ramifiées en deux ou trois ordres, avec la prophylle et des bractées pédonculaires similaires (Uhl et Dransfield 1987:367).
 </t>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
